--- a/DataSamplerate.xlsx
+++ b/DataSamplerate.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ramakrishnan\FRDM_KL25Z\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="8595" windowHeight="8265"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="8592" windowHeight="8268" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Capture" sheetId="1" r:id="rId1"/>
+    <sheet name="Data plot" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>UART Baud rate</t>
   </si>
@@ -31,16 +36,34 @@
   </si>
   <si>
     <t>S.No</t>
+  </si>
+  <si>
+    <t>S. No.</t>
+  </si>
+  <si>
+    <t>fps</t>
+  </si>
+  <si>
+    <t>HTML data plot</t>
+  </si>
+  <si>
+    <t>Data Points in Plot can be plotted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -61,7 +84,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -78,10 +101,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -91,6 +126,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -139,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,7 +212,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,17 +423,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>2</v>
       </c>
@@ -403,83 +442,83 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>115200</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <f>B3/10</f>
         <v>11520</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <f>C3/D$1</f>
         <v>2304</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <f>B3*2</f>
         <v>230400</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <f t="shared" ref="C4:C6" si="0">B4/10</f>
         <v>23040</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <f t="shared" ref="D4:D6" si="1">C4/D$1</f>
         <v>4608</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <f>B3*5</f>
         <v>576000</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <f t="shared" si="1"/>
         <v>11520</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <f>B3*6</f>
         <v>691200</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>69120</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <f t="shared" si="1"/>
         <v>13824</v>
       </c>
@@ -491,13 +530,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>60000</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>20000</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4">
+        <v>15000</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -507,7 +617,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataSamplerate.xlsx
+++ b/DataSamplerate.xlsx
@@ -14,14 +14,13 @@
   <sheets>
     <sheet name="Data Capture" sheetId="1" r:id="rId1"/>
     <sheet name="Data plot" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>UART Baud rate</t>
   </si>
@@ -41,13 +40,49 @@
     <t>S. No.</t>
   </si>
   <si>
-    <t>fps</t>
-  </si>
-  <si>
-    <t>HTML data plot</t>
-  </si>
-  <si>
-    <t>Data Points in Plot can be plotted</t>
+    <t>Total data plotted</t>
+  </si>
+  <si>
+    <t>Actual Data plotted(FHD)</t>
+  </si>
+  <si>
+    <t>Data Received(samples/read)</t>
+  </si>
+  <si>
+    <t>Data Retrieval Interval(ms)</t>
+  </si>
+  <si>
+    <t>HTML data plot - Baud Rate: 576000</t>
+  </si>
+  <si>
+    <t>Time taken to plot each frame (B2) (ms)</t>
+  </si>
+  <si>
+    <t>X axis range (s)</t>
+  </si>
+  <si>
+    <t>Total Sampled Time (ms)</t>
+  </si>
+  <si>
+    <t>Common Factors</t>
+  </si>
+  <si>
+    <t>Time for Sampled Plot (ms)</t>
+  </si>
+  <si>
+    <t>Time for Sampling (ms)</t>
+  </si>
+  <si>
+    <t>Infinity(Browser hangs)</t>
+  </si>
+  <si>
+    <t>Without Sampling - CPU utilization is high &gt; 80%</t>
+  </si>
+  <si>
+    <t>With Sampling(visually appear same as without sampling and captures all dips and peaks) - - CPU utilization is optimal ~60%</t>
+  </si>
+  <si>
+    <t>Refresh Rate(fps)</t>
   </si>
 </sst>
 </file>
@@ -69,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,8 +123,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -97,26 +150,169 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +620,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,85 +639,74 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="14">
         <v>115200</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="14">
         <f>B3/10</f>
         <v>11520</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="22">
         <f>C3/D$1</f>
         <v>2304</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="25">
         <f>B3*2</f>
         <v>230400</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="25">
         <f t="shared" ref="C4:C6" si="0">B4/10</f>
         <v>23040</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="23">
         <f t="shared" ref="D4:D6" si="1">C4/D$1</f>
         <v>4608</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="26">
         <f>B3*5</f>
         <v>576000</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="26">
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="24">
         <f t="shared" si="1"/>
         <v>11520</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <f>B3*6</f>
-        <v>691200</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" si="0"/>
-        <v>69120</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>13824</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -530,95 +715,267 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5546875" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="I3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14">
+        <v>100</v>
+      </c>
+      <c r="C4" s="14">
+        <f>'Data Capture'!D$5/(1000/B4)</f>
+        <v>1152</v>
+      </c>
+      <c r="D4" s="14">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14">
+        <f>F4/'Data Capture'!D$5</f>
+        <v>5.208333333333333</v>
+      </c>
+      <c r="F4" s="16">
+        <v>60000</v>
+      </c>
+      <c r="G4" s="18">
+        <v>70</v>
+      </c>
+      <c r="H4" s="14">
+        <v>3774</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="K4" s="12">
+        <f>I4+J4</f>
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14">
+        <v>33</v>
+      </c>
+      <c r="C5" s="14">
+        <f>'Data Capture'!D$5/(1000/B5)</f>
+        <v>380.15999999999997</v>
+      </c>
+      <c r="D5" s="14">
+        <v>30</v>
+      </c>
+      <c r="E5" s="14">
+        <f>F5/'Data Capture'!D$5</f>
+        <v>1.7361111111111112</v>
+      </c>
+      <c r="F5" s="16">
+        <v>20000</v>
+      </c>
+      <c r="G5" s="18">
+        <v>25</v>
+      </c>
+      <c r="H5" s="14">
+        <v>3748</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" ref="K5" si="0">I5+J5</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15">
+        <v>20</v>
+      </c>
+      <c r="C6" s="15">
+        <f>'Data Capture'!D$5/(1000/B6)</f>
+        <v>230.4</v>
+      </c>
+      <c r="D6" s="15">
+        <v>50</v>
+      </c>
+      <c r="E6" s="15">
+        <f>F6/'Data Capture'!D$5</f>
+        <v>1.3020833333333333</v>
+      </c>
+      <c r="F6" s="17">
+        <v>15000</v>
+      </c>
+      <c r="G6" s="19">
+        <v>20</v>
+      </c>
+      <c r="H6" s="15">
+        <v>3726</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="J6" s="15">
+        <v>5.4</v>
+      </c>
+      <c r="K6" s="13">
+        <f>I6+J6</f>
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15">
+        <v>100</v>
+      </c>
+      <c r="C7" s="15">
+        <f>'Data Capture'!D$5/(1000/B7)</f>
+        <v>1152</v>
+      </c>
+      <c r="D7" s="15">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
-        <v>60000</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4">
-        <v>20000</v>
-      </c>
-      <c r="E4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="E7" s="15">
+        <f>F7/'Data Capture'!D$5</f>
+        <v>22.569444444444443</v>
+      </c>
+      <c r="F7" s="17">
+        <v>260000</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="15">
+        <v>3684</v>
+      </c>
+      <c r="I7" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>50</v>
-      </c>
-      <c r="C5" s="4">
-        <v>15000</v>
-      </c>
-      <c r="E5">
-        <v>1000</v>
-      </c>
+      <c r="J7" s="15">
+        <v>6</v>
+      </c>
+      <c r="K7" s="13">
+        <f>I7+J7</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="28"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="28"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>